--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -208,62 +208,62 @@
     <xf numFmtId="11" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,7 +548,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,22 +562,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -588,10 +588,10 @@
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1">
@@ -608,8 +608,12 @@
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>6</v>
+      </c>
       <c r="E3" s="1">
         <v>5000</v>
       </c>
@@ -618,162 +622,166 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5">
-        <v>5000</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="E4" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F4" s="3">
         <v>2347</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="5">
-        <v>5000</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="C5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F5" s="3">
         <v>1236</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="9">
-        <v>5000</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="E6" s="5">
+        <v>5000</v>
+      </c>
+      <c r="F6" s="5">
         <v>4589</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="9">
-        <v>5000</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="C7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5">
+        <v>5000</v>
+      </c>
+      <c r="F7" s="5">
         <v>3678</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="13">
-        <v>5000</v>
-      </c>
-      <c r="F8" s="13">
+      <c r="E8" s="7">
+        <v>5000</v>
+      </c>
+      <c r="F8" s="7">
         <v>2367</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="13">
-        <v>5000</v>
-      </c>
-      <c r="F9" s="13">
+      <c r="C9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="7">
+        <v>5000</v>
+      </c>
+      <c r="F9" s="7">
         <v>1256</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="17">
-        <v>5000</v>
-      </c>
-      <c r="F10" s="17">
+      <c r="E10" s="9">
+        <v>5000</v>
+      </c>
+      <c r="F10" s="9">
         <v>4569</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="17">
-        <v>5000</v>
-      </c>
-      <c r="F11" s="17">
+      <c r="C11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="9">
+        <v>5000</v>
+      </c>
+      <c r="F11" s="9">
         <v>3478</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
